--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H2">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I2">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J2">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>44.7183601770239</v>
+        <v>161.673665108005</v>
       </c>
       <c r="R2">
-        <v>402.465241593215</v>
+        <v>1455.062985972045</v>
       </c>
       <c r="S2">
-        <v>0.002954918860337908</v>
+        <v>0.007650175977713735</v>
       </c>
       <c r="T2">
-        <v>0.002954918860337907</v>
+        <v>0.007650175977713735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H3">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I3">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J3">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>319.1677949315562</v>
+        <v>635.7307750786595</v>
       </c>
       <c r="R3">
-        <v>2872.510154384005</v>
+        <v>5721.576975707936</v>
       </c>
       <c r="S3">
-        <v>0.02109010556563935</v>
+        <v>0.03008190790102456</v>
       </c>
       <c r="T3">
-        <v>0.02109010556563936</v>
+        <v>0.03008190790102456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H4">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I4">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J4">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>312.1155384628967</v>
+        <v>588.4268578326835</v>
       </c>
       <c r="R4">
-        <v>2809.03984616607</v>
+        <v>5295.841720494151</v>
       </c>
       <c r="S4">
-        <v>0.02062410355741078</v>
+        <v>0.02784355144930949</v>
       </c>
       <c r="T4">
-        <v>0.02062410355741078</v>
+        <v>0.02784355144930949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H5">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I5">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J5">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>91.04214839846446</v>
+        <v>152.8369992366417</v>
       </c>
       <c r="R5">
-        <v>819.3793355861801</v>
+        <v>1375.532993129775</v>
       </c>
       <c r="S5">
-        <v>0.006015921879141886</v>
+        <v>0.007232037074714132</v>
       </c>
       <c r="T5">
-        <v>0.006015921879141885</v>
+        <v>0.007232037074714131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H6">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I6">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J6">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>135.4911263494772</v>
+        <v>294.4940498804895</v>
       </c>
       <c r="R6">
-        <v>1219.420137145295</v>
+        <v>2650.446448924405</v>
       </c>
       <c r="S6">
-        <v>0.008953040385953211</v>
+        <v>0.01393505432359868</v>
       </c>
       <c r="T6">
-        <v>0.008953040385953211</v>
+        <v>0.01393505432359868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H7">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I7">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J7">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>356.6497040343028</v>
+        <v>797.9473473173957</v>
       </c>
       <c r="R7">
-        <v>3209.847336308726</v>
+        <v>7181.526125856561</v>
       </c>
       <c r="S7">
-        <v>0.02356685112810484</v>
+        <v>0.03775777349916518</v>
       </c>
       <c r="T7">
-        <v>0.02356685112810484</v>
+        <v>0.03775777349916518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H8">
         <v>1.354768</v>
       </c>
       <c r="I8">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J8">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>4.516412811596445</v>
+        <v>8.197716070448001</v>
       </c>
       <c r="R8">
-        <v>40.64771530436801</v>
+        <v>73.779444634032</v>
       </c>
       <c r="S8">
-        <v>0.0002984374504169547</v>
+        <v>0.0003879046752132667</v>
       </c>
       <c r="T8">
-        <v>0.0002984374504169547</v>
+        <v>0.0003879046752132667</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H9">
         <v>1.354768</v>
       </c>
       <c r="I9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
-        <v>32.23493688881956</v>
+        <v>32.23493688881955</v>
       </c>
       <c r="R9">
-        <v>290.1144319993761</v>
+        <v>290.114431999376</v>
       </c>
       <c r="S9">
-        <v>0.002130033896536192</v>
+        <v>0.001525312979483852</v>
       </c>
       <c r="T9">
-        <v>0.002130033896536192</v>
+        <v>0.001525312979483853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H10">
         <v>1.354768</v>
       </c>
       <c r="I10">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J10">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>31.52268131102934</v>
+        <v>29.83637629242667</v>
       </c>
       <c r="R10">
-        <v>283.704131799264</v>
+        <v>268.52738663184</v>
       </c>
       <c r="S10">
-        <v>0.002082969168941941</v>
+        <v>0.001411816383465216</v>
       </c>
       <c r="T10">
-        <v>0.002082969168941941</v>
+        <v>0.001411816383465216</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H11">
         <v>1.354768</v>
       </c>
       <c r="I11">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J11">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>9.194968773326224</v>
+        <v>7.749650037093335</v>
       </c>
       <c r="R11">
-        <v>82.75471895993601</v>
+        <v>69.74685033384</v>
       </c>
       <c r="S11">
-        <v>0.0006075890650051117</v>
+        <v>0.000366702805369409</v>
       </c>
       <c r="T11">
-        <v>0.0006075890650051117</v>
+        <v>0.000366702805369409</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H12">
         <v>1.354768</v>
       </c>
       <c r="I12">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J12">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>13.68417483288711</v>
+        <v>14.93241712398756</v>
       </c>
       <c r="R12">
-        <v>123.157573495984</v>
+        <v>134.391754115888</v>
       </c>
       <c r="S12">
-        <v>0.0009042287360670063</v>
+        <v>0.0007065814874353004</v>
       </c>
       <c r="T12">
-        <v>0.0009042287360670063</v>
+        <v>0.0007065814874353004</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H13">
         <v>1.354768</v>
       </c>
       <c r="I13">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J13">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>36.0204910505689</v>
+        <v>40.46018124290845</v>
       </c>
       <c r="R13">
-        <v>324.1844194551201</v>
+        <v>364.141631186176</v>
       </c>
       <c r="S13">
-        <v>0.002380177357635892</v>
+        <v>0.001914520255303572</v>
       </c>
       <c r="T13">
-        <v>0.002380177357635893</v>
+        <v>0.001914520255303572</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H14">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I14">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J14">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>62.13702367347923</v>
+        <v>141.260561346472</v>
       </c>
       <c r="R14">
-        <v>559.233213061313</v>
+        <v>1271.345052118248</v>
       </c>
       <c r="S14">
-        <v>0.004105916729754432</v>
+        <v>0.006684255919411515</v>
       </c>
       <c r="T14">
-        <v>0.004105916729754432</v>
+        <v>0.006684255919411516</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H15">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I15">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J15">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>443.4898048802768</v>
+        <v>555.4626728654071</v>
       </c>
       <c r="R15">
-        <v>3991.408243922491</v>
+        <v>4999.164055788664</v>
       </c>
       <c r="S15">
-        <v>0.02930510831838654</v>
+        <v>0.02628373145145702</v>
       </c>
       <c r="T15">
-        <v>0.02930510831838655</v>
+        <v>0.02628373145145702</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H16">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>433.6905585436527</v>
+        <v>514.1314028679733</v>
       </c>
       <c r="R16">
-        <v>3903.215026892874</v>
+        <v>4627.18262581176</v>
       </c>
       <c r="S16">
-        <v>0.02865758954304323</v>
+        <v>0.02432799247163282</v>
       </c>
       <c r="T16">
-        <v>0.02865758954304323</v>
+        <v>0.02432799247163283</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H17">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I17">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J17">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>126.5048205686751</v>
+        <v>133.5396231183067</v>
       </c>
       <c r="R17">
-        <v>1138.543385118076</v>
+        <v>1201.85660806476</v>
       </c>
       <c r="S17">
-        <v>0.008359239443089054</v>
+        <v>0.006318911717441064</v>
       </c>
       <c r="T17">
-        <v>0.008359239443089054</v>
+        <v>0.006318911717441064</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H18">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I18">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J18">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>188.2675324451966</v>
+        <v>257.3108908709591</v>
       </c>
       <c r="R18">
-        <v>1694.407792006769</v>
+        <v>2315.798017838632</v>
       </c>
       <c r="S18">
-        <v>0.01244042223841255</v>
+        <v>0.012175598263515</v>
       </c>
       <c r="T18">
-        <v>0.01244042223841255</v>
+        <v>0.012175598263515</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H19">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I19">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J19">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>495.5716402611995</v>
+        <v>697.1975932609849</v>
       </c>
       <c r="R19">
-        <v>4460.144762350796</v>
+        <v>6274.778339348864</v>
       </c>
       <c r="S19">
-        <v>0.03274659403116486</v>
+        <v>0.03299043339013738</v>
       </c>
       <c r="T19">
-        <v>0.03274659403116487</v>
+        <v>0.03299043339013738</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H20">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I20">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J20">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>38.79622234545867</v>
+        <v>70.661903256722</v>
       </c>
       <c r="R20">
-        <v>349.166001109128</v>
+        <v>635.957129310498</v>
       </c>
       <c r="S20">
-        <v>0.00256359331300704</v>
+        <v>0.003343624296962517</v>
       </c>
       <c r="T20">
-        <v>0.00256359331300704</v>
+        <v>0.003343624296962517</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H21">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I21">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J21">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>276.8997943720773</v>
+        <v>277.8556822839349</v>
       </c>
       <c r="R21">
-        <v>2492.098149348696</v>
+        <v>2500.701140555414</v>
       </c>
       <c r="S21">
-        <v>0.0182971026123211</v>
+        <v>0.01314774960077633</v>
       </c>
       <c r="T21">
-        <v>0.0182971026123211</v>
+        <v>0.01314774960077633</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H22">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I22">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J22">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>270.781481694416</v>
+        <v>257.1807948688067</v>
       </c>
       <c r="R22">
-        <v>2437.033335249744</v>
+        <v>2314.62715381926</v>
       </c>
       <c r="S22">
-        <v>0.01789281413991072</v>
+        <v>0.01216944229921619</v>
       </c>
       <c r="T22">
-        <v>0.01789281413991072</v>
+        <v>0.01216944229921619</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H23">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I23">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J23">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>78.98526283371733</v>
+        <v>66.79970573372334</v>
       </c>
       <c r="R23">
-        <v>710.867365503456</v>
+        <v>601.19735160351</v>
       </c>
       <c r="S23">
-        <v>0.005219221856798217</v>
+        <v>0.003160870410039179</v>
       </c>
       <c r="T23">
-        <v>0.005219221856798217</v>
+        <v>0.003160870410039179</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H24">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I24">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J24">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>117.5477777557627</v>
+        <v>128.7130470409869</v>
       </c>
       <c r="R24">
-        <v>1057.929999801864</v>
+        <v>1158.417423368882</v>
       </c>
       <c r="S24">
-        <v>0.007767372151087414</v>
+        <v>0.006090524760686836</v>
       </c>
       <c r="T24">
-        <v>0.007767372151087414</v>
+        <v>0.006090524760686836</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H25">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I25">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J25">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>309.4179026776133</v>
+        <v>348.7548712552071</v>
       </c>
       <c r="R25">
-        <v>2784.76112409852</v>
+        <v>3138.793841296864</v>
       </c>
       <c r="S25">
-        <v>0.02044584803040351</v>
+        <v>0.01650260193213823</v>
       </c>
       <c r="T25">
-        <v>0.02044584803040351</v>
+        <v>0.01650260193213822</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H26">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I26">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J26">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>322.5332011350868</v>
+        <v>789.576904828514</v>
       </c>
       <c r="R26">
-        <v>2902.798810215781</v>
+        <v>7106.192143456626</v>
       </c>
       <c r="S26">
-        <v>0.02131248631091141</v>
+        <v>0.03736169564685387</v>
       </c>
       <c r="T26">
-        <v>0.02131248631091141</v>
+        <v>0.03736169564685388</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H27">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I27">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J27">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>2302.012197920285</v>
+        <v>3104.762531086991</v>
       </c>
       <c r="R27">
-        <v>20718.10978128257</v>
+        <v>27942.86277978292</v>
       </c>
       <c r="S27">
-        <v>0.1521133430079921</v>
+        <v>0.1469131024892646</v>
       </c>
       <c r="T27">
-        <v>0.1521133430079921</v>
+        <v>0.1469131024892646</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H28">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I28">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J28">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>2251.147478260215</v>
+        <v>2873.741105671847</v>
       </c>
       <c r="R28">
-        <v>20260.32730434194</v>
+        <v>25863.66995104662</v>
       </c>
       <c r="S28">
-        <v>0.1487522823864856</v>
+        <v>0.1359814856556421</v>
       </c>
       <c r="T28">
-        <v>0.1487522823864856</v>
+        <v>0.1359814856556421</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H29">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I29">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J29">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>656.645624860357</v>
+        <v>746.4206660987634</v>
       </c>
       <c r="R29">
-        <v>5909.810623743213</v>
+        <v>6717.78599488887</v>
       </c>
       <c r="S29">
-        <v>0.04339010942657899</v>
+        <v>0.03531960165091297</v>
       </c>
       <c r="T29">
-        <v>0.04339010942657899</v>
+        <v>0.03531960165091297</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H30">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I30">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J30">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>977.2358944715616</v>
+        <v>1438.241040924715</v>
       </c>
       <c r="R30">
-        <v>8795.123050244054</v>
+        <v>12944.16936832243</v>
       </c>
       <c r="S30">
-        <v>0.06457420988028238</v>
+        <v>0.06805559244354302</v>
       </c>
       <c r="T30">
-        <v>0.06457420988028238</v>
+        <v>0.06805559244354302</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H31">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I31">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J31">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>2572.352167447491</v>
+        <v>3896.990869169063</v>
       </c>
       <c r="R31">
-        <v>23151.16950702742</v>
+        <v>35072.91782252157</v>
       </c>
       <c r="S31">
-        <v>0.1699769827187692</v>
+        <v>0.184400260319272</v>
       </c>
       <c r="T31">
-        <v>0.1699769827187692</v>
+        <v>0.184400260319272</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H32">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I32">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J32">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>64.74715055720678</v>
+        <v>127.207687349061</v>
       </c>
       <c r="R32">
-        <v>582.724355014861</v>
+        <v>1144.869186141549</v>
       </c>
       <c r="S32">
-        <v>0.00427838980627311</v>
+        <v>0.006019293205780867</v>
       </c>
       <c r="T32">
-        <v>0.00427838980627311</v>
+        <v>0.006019293205780867</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H33">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I33">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J33">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>462.1190309671252</v>
+        <v>500.204171287623</v>
       </c>
       <c r="R33">
-        <v>4159.071278704128</v>
+        <v>4501.837541588608</v>
       </c>
       <c r="S33">
-        <v>0.03053609825852775</v>
+        <v>0.02366897498476583</v>
       </c>
       <c r="T33">
-        <v>0.03053609825852775</v>
+        <v>0.02366897498476583</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H34">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I34">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J34">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>451.9081576359754</v>
+        <v>462.98461601007</v>
       </c>
       <c r="R34">
-        <v>4067.173418723778</v>
+        <v>4166.861544090631</v>
       </c>
       <c r="S34">
-        <v>0.02986137981922687</v>
+        <v>0.02190779670322376</v>
       </c>
       <c r="T34">
-        <v>0.02986137981922687</v>
+        <v>0.02190779670322377</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H35">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I35">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J35">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>131.8187801625969</v>
+        <v>120.254842996695</v>
       </c>
       <c r="R35">
-        <v>1186.369021463372</v>
+        <v>1082.293586970255</v>
       </c>
       <c r="S35">
-        <v>0.008710377529660055</v>
+        <v>0.005690294152003498</v>
       </c>
       <c r="T35">
-        <v>0.008710377529660055</v>
+        <v>0.005690294152003498</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H36">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I36">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J36">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>196.1758955871215</v>
+        <v>231.713105522349</v>
       </c>
       <c r="R36">
-        <v>1765.583060284093</v>
+        <v>2085.417949701141</v>
       </c>
       <c r="S36">
-        <v>0.01296299442822379</v>
+        <v>0.01096434618714382</v>
       </c>
       <c r="T36">
-        <v>0.01296299442822379</v>
+        <v>0.01096434618714382</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H37">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I37">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J37">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>516.3886151432906</v>
+        <v>627.839027529648</v>
       </c>
       <c r="R37">
-        <v>4647.497536289616</v>
+        <v>5650.551247766833</v>
       </c>
       <c r="S37">
-        <v>0.03412214696849901</v>
+        <v>0.02970848123638318</v>
       </c>
       <c r="T37">
-        <v>0.03412214696849902</v>
+        <v>0.02970848123638318</v>
       </c>
     </row>
   </sheetData>
